--- a/Fantasy Football Database.xlsx
+++ b/Fantasy Football Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/GitHub/Fantasy-Football-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508E460-CA8C-024C-BE81-5CD931D8A03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB0D83-F0EC-FF4B-8804-B9D837CD484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{C3E3B380-45C9-374D-876E-4690A56BA390}"/>
   </bookViews>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:J608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41931,7 +41931,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fantasy Football Database.xlsx
+++ b/Fantasy Football Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/GitHub/Fantasy-Football-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB0D83-F0EC-FF4B-8804-B9D837CD484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717E9C1-577D-3941-BAC8-31C868115544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{C3E3B380-45C9-374D-876E-4690A56BA390}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="4" xr2:uid="{C3E3B380-45C9-374D-876E-4690A56BA390}"/>
   </bookViews>
   <sheets>
     <sheet name="Player List" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="729">
   <si>
     <t>Player ID</t>
   </si>
@@ -2154,13 +2154,101 @@
   </si>
   <si>
     <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Team Wins</t>
+  </si>
+  <si>
+    <t>Team Losses</t>
+  </si>
+  <si>
+    <t>Team Ties</t>
+  </si>
+  <si>
+    <t>Team W%</t>
+  </si>
+  <si>
+    <t>Points For</t>
+  </si>
+  <si>
+    <t>Points Against</t>
+  </si>
+  <si>
+    <t>Total Yards</t>
+  </si>
+  <si>
+    <t>Totals Plays</t>
+  </si>
+  <si>
+    <t>Yards / Play</t>
+  </si>
+  <si>
+    <t>Turnovers</t>
+  </si>
+  <si>
+    <t>First Downs</t>
+  </si>
+  <si>
+    <t>Fumbles Lost</t>
+  </si>
+  <si>
+    <t>Passing Completions</t>
+  </si>
+  <si>
+    <t>Passing Attempts</t>
+  </si>
+  <si>
+    <t>Passing First Downs</t>
+  </si>
+  <si>
+    <t>Rushing Attempts</t>
+  </si>
+  <si>
+    <t>Net Yards / Pass Attempt</t>
+  </si>
+  <si>
+    <t>Rushing Yards / Attempt</t>
+  </si>
+  <si>
+    <t>Rushing First Downs</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Penalty Yards Lost</t>
+  </si>
+  <si>
+    <t>First Downs By Penalty</t>
+  </si>
+  <si>
+    <t>Drives Ending in TO</t>
+  </si>
+  <si>
+    <t>Drives Ending in Score</t>
+  </si>
+  <si>
+    <t>Expected Points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2172,6 +2260,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2206,19 +2301,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2554,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DCDB32-BC3D-D34F-8105-FC202811D712}">
   <dimension ref="A1:J608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41928,15 +42030,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B4C76-0E09-CD43-802F-9ACFB6C9AEAD}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>670</v>
       </c>
@@ -41946,8 +42046,98 @@
       <c r="C1" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>671</v>
       </c>
@@ -41957,8 +42147,99 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>D2/16</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>410</v>
+      </c>
+      <c r="I2" s="8">
+        <v>367</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6153</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1083</v>
+      </c>
+      <c r="L2" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="M2" s="7">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7">
+        <v>8</v>
+      </c>
+      <c r="O2" s="7">
+        <v>381</v>
+      </c>
+      <c r="P2" s="8">
+        <v>387</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>575</v>
+      </c>
+      <c r="R2" s="8">
+        <v>3916</v>
+      </c>
+      <c r="S2" s="8">
+        <v>27</v>
+      </c>
+      <c r="T2" s="8">
+        <v>13</v>
+      </c>
+      <c r="U2" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V2" s="8">
+        <v>211</v>
+      </c>
+      <c r="W2" s="8">
+        <v>479</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2237</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>868</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>103.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -41968,8 +42249,99 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G33" si="0">D3/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="8">
+        <v>396</v>
+      </c>
+      <c r="I3" s="8">
+        <v>414</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5895</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1078</v>
+      </c>
+      <c r="L3" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M3" s="7">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7">
+        <v>366</v>
+      </c>
+      <c r="P3" s="8">
+        <v>408</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>628</v>
+      </c>
+      <c r="R3" s="8">
+        <v>4363</v>
+      </c>
+      <c r="S3" s="8">
+        <v>27</v>
+      </c>
+      <c r="T3" s="8">
+        <v>11</v>
+      </c>
+      <c r="U3" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V3" s="8">
+        <v>243</v>
+      </c>
+      <c r="W3" s="8">
+        <v>409</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1532</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>736</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="AF3">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>129.77000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>673</v>
       </c>
@@ -41979,11 +42351,99 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H4" s="8">
+        <v>468</v>
+      </c>
+      <c r="I4" s="8">
+        <v>303</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5810</v>
+      </c>
+      <c r="K4" s="7">
+        <v>993</v>
+      </c>
+      <c r="L4" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7</v>
+      </c>
+      <c r="O4" s="7">
+        <v>327</v>
+      </c>
+      <c r="P4" s="8">
+        <v>257</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>406</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2739</v>
+      </c>
+      <c r="S4" s="8">
+        <v>27</v>
+      </c>
+      <c r="T4" s="8">
+        <v>11</v>
+      </c>
+      <c r="U4" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="V4" s="8">
+        <v>142</v>
+      </c>
+      <c r="W4" s="8">
+        <v>555</v>
+      </c>
+      <c r="X4" s="8">
+        <v>3071</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>166</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>961</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0.45299999999999996</v>
+      </c>
+      <c r="AF4">
+        <v>0.106</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>674</v>
       </c>
@@ -41993,14 +42453,99 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="H5" s="8">
+        <v>501</v>
+      </c>
+      <c r="I5" s="8">
+        <v>375</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6343</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1034</v>
+      </c>
+      <c r="L5" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11</v>
+      </c>
+      <c r="O5" s="7">
+        <v>397</v>
+      </c>
+      <c r="P5" s="8">
+        <v>410</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>596</v>
+      </c>
+      <c r="R5" s="8">
+        <v>4620</v>
+      </c>
+      <c r="S5" s="8">
+        <v>40</v>
+      </c>
+      <c r="T5" s="8">
+        <v>11</v>
+      </c>
+      <c r="U5" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="V5" s="8">
+        <v>240</v>
+      </c>
+      <c r="W5" s="8">
+        <v>411</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1723</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>119</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>941</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>228.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>695</v>
       </c>
@@ -42010,14 +42555,99 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H6" s="8">
+        <v>350</v>
+      </c>
+      <c r="I6" s="8">
+        <v>402</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5592</v>
+      </c>
+      <c r="K6" s="7">
+        <v>993</v>
+      </c>
+      <c r="L6" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="M6" s="7">
+        <v>21</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>335</v>
+      </c>
+      <c r="P6" s="8">
+        <v>373</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>550</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3888</v>
+      </c>
+      <c r="S6" s="8">
+        <v>16</v>
+      </c>
+      <c r="T6" s="8">
+        <v>16</v>
+      </c>
+      <c r="U6" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="V6" s="8">
+        <v>192</v>
+      </c>
+      <c r="W6" s="8">
+        <v>407</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1704</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>752</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>694</v>
       </c>
@@ -42027,14 +42657,99 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>372</v>
+      </c>
+      <c r="I7" s="8">
+        <v>370</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5302</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1043</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M7" s="7">
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6</v>
+      </c>
+      <c r="O7" s="7">
+        <v>335</v>
+      </c>
+      <c r="P7" s="8">
+        <v>402</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>614</v>
+      </c>
+      <c r="R7" s="8">
+        <v>3655</v>
+      </c>
+      <c r="S7" s="8">
+        <v>26</v>
+      </c>
+      <c r="T7" s="8">
+        <v>16</v>
+      </c>
+      <c r="U7" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="V7" s="8">
+        <v>218</v>
+      </c>
+      <c r="W7" s="8">
+        <v>393</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1647</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>88</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>777</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0.12</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>700</v>
       </c>
@@ -42044,14 +42759,99 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f>(D8+(0.5*F8))/16</f>
+        <v>0.28125</v>
+      </c>
+      <c r="H8" s="8">
+        <v>311</v>
+      </c>
+      <c r="I8" s="8">
+        <v>424</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5116</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1040</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M8" s="7">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13</v>
+      </c>
+      <c r="O8" s="7">
+        <v>318</v>
+      </c>
+      <c r="P8" s="8">
+        <v>372</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>581</v>
+      </c>
+      <c r="R8" s="8">
+        <v>3448</v>
+      </c>
+      <c r="S8" s="8">
+        <v>19</v>
+      </c>
+      <c r="T8" s="8">
+        <v>11</v>
+      </c>
+      <c r="U8" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="V8" s="8">
+        <v>201</v>
+      </c>
+      <c r="W8" s="8">
+        <v>411</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1668</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>92</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>675</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AF8">
+        <v>0.128</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>-5.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>686</v>
       </c>
@@ -42061,14 +42861,99 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H9" s="8">
+        <v>408</v>
+      </c>
+      <c r="I9" s="8">
+        <v>419</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5913</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1022</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>16</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8</v>
+      </c>
+      <c r="O9" s="7">
+        <v>355</v>
+      </c>
+      <c r="P9" s="8">
+        <v>315</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>501</v>
+      </c>
+      <c r="R9" s="8">
+        <v>3539</v>
+      </c>
+      <c r="S9" s="8">
+        <v>27</v>
+      </c>
+      <c r="T9" s="8">
+        <v>8</v>
+      </c>
+      <c r="U9" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="V9" s="8">
+        <v>195</v>
+      </c>
+      <c r="W9" s="8">
+        <v>495</v>
+      </c>
+      <c r="X9" s="8">
+        <v>2374</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>133</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>870</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>27</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>159.47999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>688</v>
       </c>
@@ -42078,14 +42963,99 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="8">
+        <v>395</v>
+      </c>
+      <c r="I10" s="8">
+        <v>473</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5949</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1113</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <v>13</v>
+      </c>
+      <c r="O10" s="7">
+        <v>371</v>
+      </c>
+      <c r="P10" s="8">
+        <v>413</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>639</v>
+      </c>
+      <c r="R10" s="8">
+        <v>4161</v>
+      </c>
+      <c r="S10" s="8">
+        <v>25</v>
+      </c>
+      <c r="T10" s="8">
+        <v>13</v>
+      </c>
+      <c r="U10" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="V10" s="8">
+        <v>231</v>
+      </c>
+      <c r="W10" s="8">
+        <v>430</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1788</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>115</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>849</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AF10">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>699</v>
       </c>
@@ -42095,14 +43065,96 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H11" s="8">
+        <v>323</v>
+      </c>
+      <c r="I11" s="8">
+        <v>446</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5369</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1030</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7">
+        <v>9</v>
+      </c>
+      <c r="O11" s="7">
+        <v>308</v>
+      </c>
+      <c r="P11" s="8">
+        <v>317</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>556</v>
+      </c>
+      <c r="R11" s="8">
+        <v>3451</v>
+      </c>
+      <c r="S11" s="8">
+        <v>21</v>
+      </c>
+      <c r="T11" s="8">
+        <v>23</v>
+      </c>
+      <c r="U11" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="V11" s="8">
+        <v>176</v>
+      </c>
+      <c r="W11" s="8">
+        <v>442</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1918</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>94</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>81</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>670</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AF11">
+        <v>0.17</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>-21.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>691</v>
       </c>
@@ -42112,14 +43164,99 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="H12" s="8">
+        <v>377</v>
+      </c>
+      <c r="I12" s="8">
+        <v>519</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5603</v>
+      </c>
+      <c r="K12" s="7">
+        <v>991</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="M12" s="7">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8</v>
+      </c>
+      <c r="O12" s="7">
+        <v>350</v>
+      </c>
+      <c r="P12" s="8">
+        <v>374</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>582</v>
+      </c>
+      <c r="R12" s="8">
+        <v>4104</v>
+      </c>
+      <c r="S12" s="8">
+        <v>27</v>
+      </c>
+      <c r="T12" s="8">
+        <v>13</v>
+      </c>
+      <c r="U12" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="V12" s="8">
+        <v>220</v>
+      </c>
+      <c r="W12" s="8">
+        <v>367</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1499</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>93</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>860</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AF12">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>94.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>676</v>
       </c>
@@ -42129,14 +43266,99 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="H13" s="8">
+        <v>509</v>
+      </c>
+      <c r="I13" s="8">
+        <v>369</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6224</v>
+      </c>
+      <c r="K13" s="7">
+        <v>990</v>
+      </c>
+      <c r="L13" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6</v>
+      </c>
+      <c r="O13" s="7">
+        <v>358</v>
+      </c>
+      <c r="P13" s="8">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>526</v>
+      </c>
+      <c r="R13" s="8">
+        <v>4106</v>
+      </c>
+      <c r="S13" s="8">
+        <v>48</v>
+      </c>
+      <c r="T13" s="8">
+        <v>5</v>
+      </c>
+      <c r="U13" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="V13" s="8">
+        <v>216</v>
+      </c>
+      <c r="W13" s="8">
+        <v>443</v>
+      </c>
+      <c r="X13" s="8">
+        <v>2118</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>114</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>84</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>684</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0.49700000000000005</v>
+      </c>
+      <c r="AF13">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>290.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>689</v>
       </c>
@@ -42146,14 +43368,99 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="8">
+        <v>384</v>
+      </c>
+      <c r="I14" s="8">
+        <v>464</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6004</v>
+      </c>
+      <c r="K14" s="7">
+        <v>940</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="M14" s="7">
+        <v>18</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11</v>
+      </c>
+      <c r="O14" s="7">
+        <v>326</v>
+      </c>
+      <c r="P14" s="8">
+        <v>383</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>546</v>
+      </c>
+      <c r="R14" s="8">
+        <v>4538</v>
+      </c>
+      <c r="S14" s="8">
+        <v>33</v>
+      </c>
+      <c r="T14" s="8">
+        <v>7</v>
+      </c>
+      <c r="U14" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="V14" s="8">
+        <v>222</v>
+      </c>
+      <c r="W14" s="8">
+        <v>344</v>
+      </c>
+      <c r="X14" s="8">
+        <v>1466</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>83</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>80</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>619</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>21</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>140.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>682</v>
       </c>
@@ -42163,14 +43470,99 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H15" s="8">
+        <v>451</v>
+      </c>
+      <c r="I15" s="8">
+        <v>362</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6049</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1032</v>
+      </c>
+      <c r="L15" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4</v>
+      </c>
+      <c r="O15" s="7">
+        <v>364</v>
+      </c>
+      <c r="P15" s="8">
+        <v>371</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>552</v>
+      </c>
+      <c r="R15" s="8">
+        <v>4053</v>
+      </c>
+      <c r="S15" s="8">
+        <v>24</v>
+      </c>
+      <c r="T15" s="8">
+        <v>11</v>
+      </c>
+      <c r="U15" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="V15" s="8">
+        <v>201</v>
+      </c>
+      <c r="W15" s="8">
+        <v>459</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1996</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>129</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>94</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>899</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>34</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AF15">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>168.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>701</v>
       </c>
@@ -42180,14 +43572,99 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>306</v>
+      </c>
+      <c r="I16" s="8">
+        <v>492</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5218</v>
+      </c>
+      <c r="K16" s="7">
+        <v>997</v>
+      </c>
+      <c r="L16" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>310</v>
+      </c>
+      <c r="P16" s="8">
+        <v>387</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>616</v>
+      </c>
+      <c r="R16" s="8">
+        <v>3699</v>
+      </c>
+      <c r="S16" s="8">
+        <v>25</v>
+      </c>
+      <c r="T16" s="8">
+        <v>16</v>
+      </c>
+      <c r="U16" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="V16" s="8">
+        <v>205</v>
+      </c>
+      <c r="W16" s="8">
+        <v>337</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1519</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>107</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>1071</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AF16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>-6.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>680</v>
       </c>
@@ -42197,14 +43674,99 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="H17" s="8">
+        <v>473</v>
+      </c>
+      <c r="I17" s="8">
+        <v>362</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6653</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="L17" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9</v>
+      </c>
+      <c r="O17" s="7">
+        <v>397</v>
+      </c>
+      <c r="P17" s="8">
+        <v>420</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>630</v>
+      </c>
+      <c r="R17" s="8">
+        <v>4854</v>
+      </c>
+      <c r="S17" s="8">
+        <v>40</v>
+      </c>
+      <c r="T17" s="8">
+        <v>7</v>
+      </c>
+      <c r="U17" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="V17" s="8">
+        <v>255</v>
+      </c>
+      <c r="W17" s="8">
+        <v>403</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1799</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>110</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>105</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>919</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AF17">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>280.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>683</v>
       </c>
@@ -42214,14 +43776,99 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>434</v>
+      </c>
+      <c r="I18" s="8">
+        <v>478</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6133</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1036</v>
+      </c>
+      <c r="L18" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="M18" s="7">
+        <v>26</v>
+      </c>
+      <c r="N18" s="7">
+        <v>16</v>
+      </c>
+      <c r="O18" s="7">
+        <v>359</v>
+      </c>
+      <c r="P18" s="8">
+        <v>369</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>551</v>
+      </c>
+      <c r="R18" s="8">
+        <v>4217</v>
+      </c>
+      <c r="S18" s="8">
+        <v>28</v>
+      </c>
+      <c r="T18" s="8">
+        <v>10</v>
+      </c>
+      <c r="U18" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="V18" s="8">
+        <v>206</v>
+      </c>
+      <c r="W18" s="8">
+        <v>457</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1916</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>121</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>98</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>856</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AF18">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>147.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>690</v>
       </c>
@@ -42231,14 +43878,99 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H19" s="8">
+        <v>384</v>
+      </c>
+      <c r="I19" s="8">
+        <v>426</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6113</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1127</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6</v>
+      </c>
+      <c r="O19" s="7">
+        <v>373</v>
+      </c>
+      <c r="P19" s="8">
+        <v>413</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>627</v>
+      </c>
+      <c r="R19" s="8">
+        <v>4329</v>
+      </c>
+      <c r="S19" s="8">
+        <v>31</v>
+      </c>
+      <c r="T19" s="8">
+        <v>10</v>
+      </c>
+      <c r="U19" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V19" s="8">
+        <v>226</v>
+      </c>
+      <c r="W19" s="8">
+        <v>466</v>
+      </c>
+      <c r="X19" s="8">
+        <v>1784</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>111</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>710</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.38299999999999995</v>
+      </c>
+      <c r="AF19">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>693</v>
       </c>
@@ -42248,14 +43980,99 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="H20" s="8">
+        <v>372</v>
+      </c>
+      <c r="I20" s="8">
+        <v>296</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6032</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1088</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M20" s="7">
+        <v>25</v>
+      </c>
+      <c r="N20" s="7">
+        <v>11</v>
+      </c>
+      <c r="O20" s="7">
+        <v>352</v>
+      </c>
+      <c r="P20" s="8">
+        <v>392</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>590</v>
+      </c>
+      <c r="R20" s="8">
+        <v>4014</v>
+      </c>
+      <c r="S20" s="8">
+        <v>20</v>
+      </c>
+      <c r="T20" s="8">
+        <v>14</v>
+      </c>
+      <c r="U20" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V20" s="8">
+        <v>206</v>
+      </c>
+      <c r="W20" s="8">
+        <v>473</v>
+      </c>
+      <c r="X20" s="8">
+        <v>2018</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>123</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>71</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>655</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>23</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AF20">
+        <v>0.125</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>57.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>687</v>
       </c>
@@ -42265,14 +44082,99 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="H21" s="8">
+        <v>404</v>
+      </c>
+      <c r="I21" s="8">
+        <v>338</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5424</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1021</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="M21" s="7">
+        <v>20</v>
+      </c>
+      <c r="N21" s="7">
+        <v>7</v>
+      </c>
+      <c r="O21" s="7">
+        <v>345</v>
+      </c>
+      <c r="P21" s="8">
+        <v>370</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>559</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3736</v>
+      </c>
+      <c r="S21" s="8">
+        <v>24</v>
+      </c>
+      <c r="T21" s="8">
+        <v>13</v>
+      </c>
+      <c r="U21" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="V21" s="8">
+        <v>207</v>
+      </c>
+      <c r="W21" s="8">
+        <v>428</v>
+      </c>
+      <c r="X21" s="8">
+        <v>1688</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>74</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>635</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>38</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AF21">
+        <v>0.11</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>684</v>
       </c>
@@ -42282,14 +44184,99 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H22" s="8">
+        <v>430</v>
+      </c>
+      <c r="I22" s="8">
+        <v>475</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6292</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1023</v>
+      </c>
+      <c r="L22" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>23</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10</v>
+      </c>
+      <c r="O22" s="7">
+        <v>383</v>
+      </c>
+      <c r="P22" s="8">
+        <v>349</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>516</v>
+      </c>
+      <c r="R22" s="8">
+        <v>4009</v>
+      </c>
+      <c r="S22" s="8">
+        <v>35</v>
+      </c>
+      <c r="T22" s="8">
+        <v>13</v>
+      </c>
+      <c r="U22" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="V22" s="8">
+        <v>212</v>
+      </c>
+      <c r="W22" s="8">
+        <v>468</v>
+      </c>
+      <c r="X22" s="8">
+        <v>2283</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>139</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>82</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>650</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>0.39799999999999996</v>
+      </c>
+      <c r="AF22">
+        <v>0.125</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>698</v>
       </c>
@@ -42299,14 +44286,99 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H23" s="8">
+        <v>326</v>
+      </c>
+      <c r="I23" s="8">
+        <v>353</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5236</v>
+      </c>
+      <c r="K23" s="7">
+        <v>979</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="M23" s="7">
+        <v>19</v>
+      </c>
+      <c r="N23" s="7">
+        <v>5</v>
+      </c>
+      <c r="O23" s="7">
+        <v>332</v>
+      </c>
+      <c r="P23" s="8">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>440</v>
+      </c>
+      <c r="R23" s="8">
+        <v>2890</v>
+      </c>
+      <c r="S23" s="8">
+        <v>12</v>
+      </c>
+      <c r="T23" s="8">
+        <v>14</v>
+      </c>
+      <c r="U23" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="V23" s="8">
+        <v>157</v>
+      </c>
+      <c r="W23" s="8">
+        <v>502</v>
+      </c>
+      <c r="X23" s="8">
+        <v>2346</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>143</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>534</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>0.121</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>679</v>
       </c>
@@ -42316,14 +44388,99 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="8">
+        <v>482</v>
+      </c>
+      <c r="I24" s="8">
+        <v>337</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6023</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1045</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="M24" s="7">
+        <v>17</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9</v>
+      </c>
+      <c r="O24" s="7">
+        <v>367</v>
+      </c>
+      <c r="P24" s="8">
+        <v>370</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>522</v>
+      </c>
+      <c r="R24" s="8">
+        <v>3758</v>
+      </c>
+      <c r="S24" s="8">
+        <v>28</v>
+      </c>
+      <c r="T24" s="8">
+        <v>8</v>
+      </c>
+      <c r="U24" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="V24" s="8">
+        <v>199</v>
+      </c>
+      <c r="W24" s="8">
+        <v>494</v>
+      </c>
+      <c r="X24" s="8">
+        <v>2265</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>30</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>147</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>98</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>1005</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>21</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AF24">
+        <v>0.09</v>
+      </c>
+      <c r="AG24" s="9">
+        <v>176.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>702</v>
       </c>
@@ -42333,14 +44490,99 @@
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="H25" s="8">
+        <v>280</v>
+      </c>
+      <c r="I25" s="8">
+        <v>357</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4794</v>
+      </c>
+      <c r="K25" s="7">
+        <v>966</v>
+      </c>
+      <c r="L25" s="7">
+        <v>5</v>
+      </c>
+      <c r="M25" s="7">
+        <v>22</v>
+      </c>
+      <c r="N25" s="7">
+        <v>11</v>
+      </c>
+      <c r="O25" s="7">
+        <v>297</v>
+      </c>
+      <c r="P25" s="8">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>517</v>
+      </c>
+      <c r="R25" s="8">
+        <v>3026</v>
+      </c>
+      <c r="S25" s="8">
+        <v>12</v>
+      </c>
+      <c r="T25" s="8">
+        <v>11</v>
+      </c>
+      <c r="U25" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="V25" s="8">
+        <v>178</v>
+      </c>
+      <c r="W25" s="8">
+        <v>399</v>
+      </c>
+      <c r="X25" s="8">
+        <v>1768</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>13</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>91</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>81</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>634</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AF25">
+        <v>0.126</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>-26.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>703</v>
       </c>
@@ -42350,14 +44592,99 @@
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H26" s="8">
+        <v>243</v>
+      </c>
+      <c r="I26" s="8">
+        <v>457</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4479</v>
+      </c>
+      <c r="K26" s="7">
+        <v>948</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="M26" s="7">
+        <v>19</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5</v>
+      </c>
+      <c r="O26" s="7">
+        <v>269</v>
+      </c>
+      <c r="P26" s="8">
+        <v>292</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>499</v>
+      </c>
+      <c r="R26" s="8">
+        <v>2796</v>
+      </c>
+      <c r="S26" s="8">
+        <v>16</v>
+      </c>
+      <c r="T26" s="8">
+        <v>14</v>
+      </c>
+      <c r="U26" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="V26" s="8">
+        <v>146</v>
+      </c>
+      <c r="W26" s="8">
+        <v>406</v>
+      </c>
+      <c r="X26" s="8">
+        <v>1683</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>94</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>101</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>952</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AF26">
+        <v>0.109</v>
+      </c>
+      <c r="AG26" s="9">
+        <v>-59.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>697</v>
       </c>
@@ -42367,14 +44694,99 @@
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <f>(D27+(0.5*F27))/16</f>
+        <v>0.28125</v>
+      </c>
+      <c r="H27" s="8">
+        <v>334</v>
+      </c>
+      <c r="I27" s="8">
+        <v>418</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5354</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1066</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="M27" s="7">
+        <v>29</v>
+      </c>
+      <c r="N27" s="7">
+        <v>9</v>
+      </c>
+      <c r="O27" s="7">
+        <v>336</v>
+      </c>
+      <c r="P27" s="8">
+        <v>334</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>598</v>
+      </c>
+      <c r="R27" s="8">
+        <v>3327</v>
+      </c>
+      <c r="S27" s="8">
+        <v>22</v>
+      </c>
+      <c r="T27" s="8">
+        <v>20</v>
+      </c>
+      <c r="U27" s="8">
+        <v>5</v>
+      </c>
+      <c r="V27" s="8">
+        <v>177</v>
+      </c>
+      <c r="W27" s="8">
+        <v>403</v>
+      </c>
+      <c r="X27" s="8">
+        <v>2027</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>114</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>107</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>853</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>45</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="AF27">
+        <v>0.153</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>-13.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>685</v>
       </c>
@@ -42384,14 +44796,99 @@
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="8">
+        <v>416</v>
+      </c>
+      <c r="I28" s="8">
+        <v>312</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5354</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1043</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M28" s="7">
+        <v>18</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7</v>
+      </c>
+      <c r="O28" s="7">
+        <v>322</v>
+      </c>
+      <c r="P28" s="8">
+        <v>428</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>656</v>
+      </c>
+      <c r="R28" s="8">
+        <v>4003</v>
+      </c>
+      <c r="S28" s="8">
+        <v>35</v>
+      </c>
+      <c r="T28" s="8">
+        <v>11</v>
+      </c>
+      <c r="U28" s="8">
+        <v>6</v>
+      </c>
+      <c r="V28" s="8">
+        <v>206</v>
+      </c>
+      <c r="W28" s="8">
+        <v>373</v>
+      </c>
+      <c r="X28" s="8">
+        <v>1351</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>81</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>81</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>691</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>35</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>0.37200000000000005</v>
+      </c>
+      <c r="AF28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>78.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>692</v>
       </c>
@@ -42401,14 +44898,99 @@
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="H29" s="8">
+        <v>376</v>
+      </c>
+      <c r="I29" s="8">
+        <v>390</v>
+      </c>
+      <c r="J29" s="7">
+        <v>5922</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1046</v>
+      </c>
+      <c r="L29" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="M29" s="7">
+        <v>31</v>
+      </c>
+      <c r="N29" s="7">
+        <v>14</v>
+      </c>
+      <c r="O29" s="7">
+        <v>350</v>
+      </c>
+      <c r="P29" s="8">
+        <v>371</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>570</v>
+      </c>
+      <c r="R29" s="8">
+        <v>4033</v>
+      </c>
+      <c r="S29" s="8">
+        <v>25</v>
+      </c>
+      <c r="T29" s="8">
+        <v>17</v>
+      </c>
+      <c r="U29" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="V29" s="8">
+        <v>217</v>
+      </c>
+      <c r="W29" s="8">
+        <v>437</v>
+      </c>
+      <c r="X29" s="8">
+        <v>1889</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>101</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>85</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>731</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>32</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="AG29" s="9">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>681</v>
       </c>
@@ -42418,14 +45000,99 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="8">
+        <v>459</v>
+      </c>
+      <c r="I30" s="8">
+        <v>371</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5912</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1022</v>
+      </c>
+      <c r="L30" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="M30" s="7">
+        <v>18</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5</v>
+      </c>
+      <c r="O30" s="7">
+        <v>356</v>
+      </c>
+      <c r="P30" s="8">
+        <v>388</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>563</v>
+      </c>
+      <c r="R30" s="8">
+        <v>3941</v>
+      </c>
+      <c r="S30" s="8">
+        <v>40</v>
+      </c>
+      <c r="T30" s="8">
+        <v>13</v>
+      </c>
+      <c r="U30" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="V30" s="8">
+        <v>216</v>
+      </c>
+      <c r="W30" s="8">
+        <v>411</v>
+      </c>
+      <c r="X30" s="8">
+        <v>1971</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>111</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>84</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>662</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>129.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>677</v>
       </c>
@@ -42435,14 +45102,99 @@
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H31" s="8">
+        <v>492</v>
+      </c>
+      <c r="I31" s="8">
+        <v>355</v>
+      </c>
+      <c r="J31" s="7">
+        <v>6145</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1017</v>
+      </c>
+      <c r="L31" s="7">
+        <v>6</v>
+      </c>
+      <c r="M31" s="7">
+        <v>17</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5</v>
+      </c>
+      <c r="O31" s="7">
+        <v>364</v>
+      </c>
+      <c r="P31" s="8">
+        <v>410</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>626</v>
+      </c>
+      <c r="R31" s="8">
+        <v>4626</v>
+      </c>
+      <c r="S31" s="8">
+        <v>42</v>
+      </c>
+      <c r="T31" s="8">
+        <v>12</v>
+      </c>
+      <c r="U31" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="V31" s="8">
+        <v>238</v>
+      </c>
+      <c r="W31" s="8">
+        <v>369</v>
+      </c>
+      <c r="X31" s="8">
+        <v>1519</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>82</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>84</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>715</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>44</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AF31">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>246.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>678</v>
       </c>
@@ -42452,14 +45204,99 @@
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H32" s="8">
+        <v>491</v>
+      </c>
+      <c r="I32" s="8">
+        <v>439</v>
+      </c>
+      <c r="J32" s="7">
+        <v>6343</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1031</v>
+      </c>
+      <c r="L32" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>12</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5</v>
+      </c>
+      <c r="O32" s="7">
+        <v>381</v>
+      </c>
+      <c r="P32" s="8">
+        <v>316</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>485</v>
+      </c>
+      <c r="R32" s="8">
+        <v>3653</v>
+      </c>
+      <c r="S32" s="8">
+        <v>33</v>
+      </c>
+      <c r="T32" s="8">
+        <v>7</v>
+      </c>
+      <c r="U32" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="V32" s="8">
+        <v>203</v>
+      </c>
+      <c r="W32" s="8">
+        <v>521</v>
+      </c>
+      <c r="X32" s="8">
+        <v>2690</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>26</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>142</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>86</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>783</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>36</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AF32">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="AG32" s="9">
+        <v>245.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>696</v>
       </c>
@@ -42469,26 +45306,109 @@
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H33" s="8">
+        <v>335</v>
+      </c>
+      <c r="I33" s="8">
+        <v>329</v>
+      </c>
+      <c r="J33" s="7">
+        <v>5076</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1051</v>
+      </c>
+      <c r="L33" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="M33" s="7">
+        <v>27</v>
+      </c>
+      <c r="N33" s="7">
+        <v>11</v>
+      </c>
+      <c r="O33" s="7">
+        <v>322</v>
+      </c>
+      <c r="P33" s="8">
+        <v>389</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>601</v>
+      </c>
+      <c r="R33" s="8">
+        <v>3465</v>
+      </c>
+      <c r="S33" s="8">
+        <v>16</v>
+      </c>
+      <c r="T33" s="8">
+        <v>16</v>
+      </c>
+      <c r="U33" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="V33" s="8">
+        <v>184</v>
+      </c>
+      <c r="W33" s="8">
+        <v>400</v>
+      </c>
+      <c r="X33" s="8">
+        <v>1611</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>18</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>108</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>87</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>697</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>30</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="AF33">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>-10.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="I34" s="5"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="I35" s="5"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fantasy Football Database.xlsx
+++ b/Fantasy Football Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/GitHub/Fantasy-Football-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717E9C1-577D-3941-BAC8-31C868115544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3884E85E-9AF5-C343-96E9-0DB552E926E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="4" xr2:uid="{C3E3B380-45C9-374D-876E-4690A56BA390}"/>
   </bookViews>
